--- a/upload/template-raw-materals.xlsx
+++ b/upload/template-raw-materals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531BDAA8-71E0-CB47-942D-412354AB8F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF19DA4-2430-9644-B75E-ADD144C7F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16140" xr2:uid="{7518A780-8C7C-49F0-AF96-CB417392CB7C}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="22660" windowHeight="14300" xr2:uid="{7518A780-8C7C-49F0-AF96-CB417392CB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>Raw Material</t>
   </si>
   <si>
-    <t>telur</t>
-  </si>
-  <si>
-    <t>pcs</t>
+    <t>Beras</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D122A3B-082C-4927-BED4-1515AE1FEEA8}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,20 +472,20 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15000</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>36000</v>
+        <v>300000</v>
       </c>
       <c r="F2">
         <f>E2/C2</f>
-        <v>2250</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -505,6 +505,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/upload/template-raw-materals.xlsx
+++ b/upload/template-raw-materals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB04B80C-BB3C-2D43-A422-FF256C77E3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DFC5C-1BEF-E946-ADF0-3CD302990733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="22660" windowHeight="14260" xr2:uid="{7518A780-8C7C-49F0-AF96-CB417392CB7C}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>Raw Material</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>Tepung Terigu</t>
+    <t>Telur</t>
+  </si>
+  <si>
+    <t>pcs</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,23 +469,23 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44998</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>44993</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>300000</v>
+        <v>18000</v>
       </c>
       <c r="F2">
         <f>E2/C2</f>
-        <v>30</v>
+        <v>1125</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>

--- a/upload/template-raw-materals.xlsx
+++ b/upload/template-raw-materals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DFC5C-1BEF-E946-ADF0-3CD302990733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4B72C-DE48-DF40-B9B5-B1FFD36F26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="22660" windowHeight="14260" xr2:uid="{7518A780-8C7C-49F0-AF96-CB417392CB7C}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>Raw Material</t>
   </si>
   <si>
-    <t>Telur</t>
-  </si>
-  <si>
-    <t>pcs</t>
+    <t>Air Mineral</t>
+  </si>
+  <si>
+    <t>ml</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,20 +472,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>44998</v>
+        <v>45002</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="F2">
-        <f>E2/C2</f>
-        <v>1125</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
